--- a/Бизнес аналитик. Темы.xlsx
+++ b/Бизнес аналитик. Темы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ефимов\My project\inueco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC06351-3EE0-437E-9663-4E92B646AB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2646CF43-D50B-49EB-A030-EB8448D04401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>№</t>
   </si>
@@ -36,138 +36,6 @@
   </si>
   <si>
     <t>Результат</t>
-  </si>
-  <si>
-    <t>Научить студентов создавать базовые UML-диаграммы для визуализации требований и проектирования систем.</t>
-  </si>
-  <si>
-    <t>UML: Диаграммы взаимодействия (Sequence, Communication)</t>
-  </si>
-  <si>
-    <t>Освоить методы моделирования динамики системы через диаграммы взаимодействия.</t>
-  </si>
-  <si>
-    <t>"1. Создает Sequence-диаграммы для описания сценариев работы системы; 2. Использует Communication-диаграммы для отображения взаимодействия объектов."</t>
-  </si>
-  <si>
-    <t>BPMN 2.0 (базовые элементы)</t>
-  </si>
-  <si>
-    <t>Основы BPMN 2.0: события, шлюзы, потоки</t>
-  </si>
-  <si>
-    <t>Изучить базовые элементы BPMN 2.0 для моделирования бизнес-процессов.</t>
-  </si>
-  <si>
-    <t>"1. Различает типы событий (стартовые, промежуточные, конечные); 2. Применяет шлюзы для ветвления процессов; 3. Строит простые модели процессов в нотации BPMN."</t>
-  </si>
-  <si>
-    <t>Анализ и оптимизация процессов</t>
-  </si>
-  <si>
-    <t>Методы анализа и оптимизации бизнес-процессов</t>
-  </si>
-  <si>
-    <t>Научить выявлять узкие места и улучшать процессы с использованием методологий Lean и Six Sigma.</t>
-  </si>
-  <si>
-    <t>"1. Проводит анализ времени выполнения операций (time-motion study); 2. Выявляет избыточные шаги в процессах; 3. Применяет принципы устранения потерь (Muda, Mura, Muri)."</t>
-  </si>
-  <si>
-    <t>Практика моделирования «AS IS» и «TO BE»</t>
-  </si>
-  <si>
-    <t>Переход от AS-IS к TO-BE в BPMN</t>
-  </si>
-  <si>
-    <t>Научить преобразовывать текущие процессы в целевую модель с учетом оптимизации.</t>
-  </si>
-  <si>
-    <t>"1. Сравнивает AS-IS и TO-BE модели; 2. Определяет «разрывы» (GAPs) между состояниями; 3. Формулирует рекомендации по трансформации процессов."</t>
-  </si>
-  <si>
-    <t>Связь моделей с требованиями</t>
-  </si>
-  <si>
-    <t>Трассировка требований через модели</t>
-  </si>
-  <si>
-    <t>Освоить методы связывания требований с элементами моделей для обеспечения согласованности.</t>
-  </si>
-  <si>
-    <t>"1. Создает матрицу трассировки требований; 2. Проверяет полноту покрытия требований в моделях; 3. Выявляет противоречия в требованиях через диаграммы."</t>
-  </si>
-  <si>
-    <t>HLD (High-Level Design)</t>
-  </si>
-  <si>
-    <t>Разработка высокоуровневого дизайна системы</t>
-  </si>
-  <si>
-    <t>Научить создавать архитектурные решения на уровне компонентов системы.</t>
-  </si>
-  <si>
-    <t>"1. Определяет ключевые модули системы; 2. Описывает интерфейсы между компонентами; 3. Документирует HLD в формате архитектурной схемы."</t>
-  </si>
-  <si>
-    <t>Карта пути пользователя (CJM)</t>
-  </si>
-  <si>
-    <t>Customer Journey Mapping</t>
-  </si>
-  <si>
-    <t>Освоить технику визуализации взаимодействия пользователя с продуктом/сервисом.</t>
-  </si>
-  <si>
-    <t>"1. Строит CJM с выделением точек касания (touchpoints); 2. Анализирует pain points и моменты истины (moments of truth); 3. Предлагает улучшения UX на основе карты."</t>
-  </si>
-  <si>
-    <t>Написание User Stories и Use Case</t>
-  </si>
-  <si>
-    <t>Детализация требований: User Stories vs Use Case</t>
-  </si>
-  <si>
-    <t>Научить корректно формулировать пользовательские сценарии в разных форматах.</t>
-  </si>
-  <si>
-    <t>"1. Пишет User Stories по шаблону «Как &lt;роль&gt;, я хочу &lt;функция&gt;, чтобы &lt;ценность&gt;»; 2. Разрабатывает Use Case с пред-/постусловиями и основным потоком; 3. Оценивает полноту сценариев через матрицу покрытия."</t>
-  </si>
-  <si>
-    <t>Data Flow Diagrams (DFD)</t>
-  </si>
-  <si>
-    <t>Моделирование потоков данных: DFD</t>
-  </si>
-  <si>
-    <t>Познакомить с методологией DFD для анализа информационных потоков в системе.</t>
-  </si>
-  <si>
-    <t>"1. Строит контекстную диаграмму (уровень 0); 2. Декомпозирует процессы на уровни 1-2; 3. Идентифицирует внешние сущности и хранилища данных."</t>
-  </si>
-  <si>
-    <t>Моделирование данных (ER-диаграммы)</t>
-  </si>
-  <si>
-    <t>Проектирование баз данных: ER-моделирование</t>
-  </si>
-  <si>
-    <t>Освоить принципы проектирования реляционных БД через Entity-Relationship модели.</t>
-  </si>
-  <si>
-    <t>"1. Различает сущности, атрибуты и связи (1:1, 1:N, M:N); 2. Нормализует данные до 3НФ; 3. Преобразует ER-диаграмму в схему БД."</t>
-  </si>
-  <si>
-    <t>Шаблоны проектирования для аналитиков</t>
-  </si>
-  <si>
-    <t>Познакомить с популярными архитектурными паттернами и их применением.</t>
-  </si>
-  <si>
-    <t>"1. Сравнивает MVC, MVP и другие; 2. Анализирует плюсы/минусы архитекурных подходов; 3. Рекомендует паттерны под задачи проекта."</t>
-  </si>
-  <si>
-    <t>отбивка</t>
   </si>
   <si>
     <t>Архитектура клиент-сервер</t>
@@ -189,9 +57,6 @@
   </si>
   <si>
     <t>Изучить подходы к интеграции систем через сервисы.</t>
-  </si>
-  <si>
-    <t>"1. Понимает роль ESB (Enterprise Service Bus); 2. Сравнивает SOAP/REST; 3. Проектирует сервисы для повторного использования."</t>
   </si>
   <si>
     <t>Алгоритмы для проектирования процессов</t>
@@ -412,9 +277,6 @@
     <t>Версионный контроль для аналитиков</t>
   </si>
   <si>
-    <t>Освоить работу Github, github desktop, github в ide для командной работы.</t>
-  </si>
-  <si>
     <t>"1. Создает репозитории; 2. Фиксирует изменения (commit/push); 3. Разрешает конфликты слияния."</t>
   </si>
   <si>
@@ -442,29 +304,17 @@
     <t>июль</t>
   </si>
   <si>
-    <t>1 2 3 нф</t>
+    <t>Освоить работу Github, github desktop, git в ide для командной работы.</t>
   </si>
   <si>
-    <t>UML: Use Case, Activity, State Machine diagrams</t>
-  </si>
-  <si>
-    <t>Основы UML: Use Case, Activity, State Machine diagrams</t>
-  </si>
-  <si>
-    <t>"1. Строит Use Case-диаграммы для описания взаимодействий акторов с системой; 2. Разрабатывает Activity-диаграммы для моделирования процессов; 3. State Machine</t>
-  </si>
-  <si>
-    <t>UML: Sequence Diagram, class. VAD</t>
-  </si>
-  <si>
-    <t>Архитектурные паттерны</t>
+    <t>"1. Понимает роль ESB (Enterprise Service Bus)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -512,14 +362,6 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -680,7 +522,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -901,7 +743,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K637"/>
+  <dimension ref="A1:K636"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -952,314 +794,255 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="89.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="63.75" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>142</v>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="89.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>7</v>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="89.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:11" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="102" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:11" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="89.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:11" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="89.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:11" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>20</v>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="89.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:11" ht="63.75" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>24</v>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="89.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:11" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>28</v>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="89.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>32</v>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="127.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:11" ht="51" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>36</v>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="89.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:11" ht="63.75" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>40</v>
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="76.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:11" ht="51" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>47</v>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:11" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="76.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:11" ht="165.75" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>44</v>
+      <c r="B16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1268,14 +1051,22 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+    <row r="17" spans="1:11" ht="51" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1283,22 +1074,16 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1306,22 +1091,16 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1329,21 +1108,21 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="63.75" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>3</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>57</v>
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1354,19 +1133,19 @@
     </row>
     <row r="21" spans="1:11" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1375,21 +1154,21 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="114.75" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1400,19 +1179,19 @@
     </row>
     <row r="23" spans="1:11" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1421,21 +1200,21 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="51" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1444,22 +1223,12 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="76.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>8</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>80</v>
-      </c>
+    <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1467,22 +1236,12 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="63.75" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>9</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>84</v>
-      </c>
+    <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1490,22 +1249,12 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="51" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>10</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>88</v>
-      </c>
+    <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1513,22 +1262,12 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="63.75" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>11</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>92</v>
-      </c>
+    <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1536,22 +1275,12 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="51" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>12</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>96</v>
-      </c>
+    <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1559,22 +1288,12 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="76.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>13</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>100</v>
-      </c>
+    <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1582,22 +1301,12 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="165.75" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>14</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>104</v>
-      </c>
+    <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1605,22 +1314,12 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="51" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>15</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>108</v>
-      </c>
+    <row r="32" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1629,15 +1328,11 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>16</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1646,15 +1341,11 @@
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>17</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1662,22 +1353,12 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="63.75" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>18</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>114</v>
-      </c>
+    <row r="35" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1685,22 +1366,12 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="76.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>19</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>118</v>
-      </c>
+    <row r="36" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1708,22 +1379,12 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="114.75" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>20</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>122</v>
-      </c>
+    <row r="37" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1731,22 +1392,12 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="76.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>21</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>126</v>
-      </c>
+    <row r="38" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1754,28 +1405,18 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="51" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>22</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+    <row r="39" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
@@ -9357,11 +8998,6 @@
       <c r="K622" s="6"/>
     </row>
     <row r="623" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A623" s="6"/>
-      <c r="B623" s="6"/>
-      <c r="C623" s="6"/>
-      <c r="D623" s="6"/>
-      <c r="E623" s="6"/>
       <c r="F623" s="6"/>
       <c r="G623" s="6"/>
       <c r="H623" s="6"/>
@@ -9370,11 +9006,6 @@
       <c r="K623" s="6"/>
     </row>
     <row r="624" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A624" s="6"/>
-      <c r="B624" s="6"/>
-      <c r="C624" s="6"/>
-      <c r="D624" s="6"/>
-      <c r="E624" s="6"/>
       <c r="F624" s="6"/>
       <c r="G624" s="6"/>
       <c r="H624" s="6"/>
@@ -9382,12 +9013,7 @@
       <c r="J624" s="6"/>
       <c r="K624" s="6"/>
     </row>
-    <row r="625" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A625" s="6"/>
-      <c r="B625" s="6"/>
-      <c r="C625" s="6"/>
-      <c r="D625" s="6"/>
-      <c r="E625" s="6"/>
+    <row r="625" spans="6:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="F625" s="6"/>
       <c r="G625" s="6"/>
       <c r="H625" s="6"/>
@@ -9395,12 +9021,7 @@
       <c r="J625" s="6"/>
       <c r="K625" s="6"/>
     </row>
-    <row r="626" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A626" s="6"/>
-      <c r="B626" s="6"/>
-      <c r="C626" s="6"/>
-      <c r="D626" s="6"/>
-      <c r="E626" s="6"/>
+    <row r="626" spans="6:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="F626" s="6"/>
       <c r="G626" s="6"/>
       <c r="H626" s="6"/>
@@ -9408,12 +9029,7 @@
       <c r="J626" s="6"/>
       <c r="K626" s="6"/>
     </row>
-    <row r="627" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A627" s="6"/>
-      <c r="B627" s="6"/>
-      <c r="C627" s="6"/>
-      <c r="D627" s="6"/>
-      <c r="E627" s="6"/>
+    <row r="627" spans="6:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="F627" s="6"/>
       <c r="G627" s="6"/>
       <c r="H627" s="6"/>
@@ -9421,12 +9037,7 @@
       <c r="J627" s="6"/>
       <c r="K627" s="6"/>
     </row>
-    <row r="628" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A628" s="6"/>
-      <c r="B628" s="6"/>
-      <c r="C628" s="6"/>
-      <c r="D628" s="6"/>
-      <c r="E628" s="6"/>
+    <row r="628" spans="6:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="F628" s="6"/>
       <c r="G628" s="6"/>
       <c r="H628" s="6"/>
@@ -9434,12 +9045,7 @@
       <c r="J628" s="6"/>
       <c r="K628" s="6"/>
     </row>
-    <row r="629" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A629" s="6"/>
-      <c r="B629" s="6"/>
-      <c r="C629" s="6"/>
-      <c r="D629" s="6"/>
-      <c r="E629" s="6"/>
+    <row r="629" spans="6:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="F629" s="6"/>
       <c r="G629" s="6"/>
       <c r="H629" s="6"/>
@@ -9447,12 +9053,7 @@
       <c r="J629" s="6"/>
       <c r="K629" s="6"/>
     </row>
-    <row r="630" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A630" s="6"/>
-      <c r="B630" s="6"/>
-      <c r="C630" s="6"/>
-      <c r="D630" s="6"/>
-      <c r="E630" s="6"/>
+    <row r="630" spans="6:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="F630" s="6"/>
       <c r="G630" s="6"/>
       <c r="H630" s="6"/>
@@ -9460,12 +9061,7 @@
       <c r="J630" s="6"/>
       <c r="K630" s="6"/>
     </row>
-    <row r="631" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A631" s="6"/>
-      <c r="B631" s="6"/>
-      <c r="C631" s="6"/>
-      <c r="D631" s="6"/>
-      <c r="E631" s="6"/>
+    <row r="631" spans="6:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="F631" s="6"/>
       <c r="G631" s="6"/>
       <c r="H631" s="6"/>
@@ -9473,12 +9069,7 @@
       <c r="J631" s="6"/>
       <c r="K631" s="6"/>
     </row>
-    <row r="632" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A632" s="6"/>
-      <c r="B632" s="6"/>
-      <c r="C632" s="6"/>
-      <c r="D632" s="6"/>
-      <c r="E632" s="6"/>
+    <row r="632" spans="6:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="F632" s="6"/>
       <c r="G632" s="6"/>
       <c r="H632" s="6"/>
@@ -9486,12 +9077,7 @@
       <c r="J632" s="6"/>
       <c r="K632" s="6"/>
     </row>
-    <row r="633" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A633" s="6"/>
-      <c r="B633" s="6"/>
-      <c r="C633" s="6"/>
-      <c r="D633" s="6"/>
-      <c r="E633" s="6"/>
+    <row r="633" spans="6:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="F633" s="6"/>
       <c r="G633" s="6"/>
       <c r="H633" s="6"/>
@@ -9499,12 +9085,7 @@
       <c r="J633" s="6"/>
       <c r="K633" s="6"/>
     </row>
-    <row r="634" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A634" s="6"/>
-      <c r="B634" s="6"/>
-      <c r="C634" s="6"/>
-      <c r="D634" s="6"/>
-      <c r="E634" s="6"/>
+    <row r="634" spans="6:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="F634" s="6"/>
       <c r="G634" s="6"/>
       <c r="H634" s="6"/>
@@ -9512,12 +9093,7 @@
       <c r="J634" s="6"/>
       <c r="K634" s="6"/>
     </row>
-    <row r="635" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A635" s="6"/>
-      <c r="B635" s="6"/>
-      <c r="C635" s="6"/>
-      <c r="D635" s="6"/>
-      <c r="E635" s="6"/>
+    <row r="635" spans="6:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="F635" s="6"/>
       <c r="G635" s="6"/>
       <c r="H635" s="6"/>
@@ -9525,31 +9101,13 @@
       <c r="J635" s="6"/>
       <c r="K635" s="6"/>
     </row>
-    <row r="636" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A636" s="6"/>
-      <c r="B636" s="6"/>
-      <c r="C636" s="6"/>
-      <c r="D636" s="6"/>
-      <c r="E636" s="6"/>
+    <row r="636" spans="6:11" ht="12.75" x14ac:dyDescent="0.35">
       <c r="F636" s="6"/>
       <c r="G636" s="6"/>
       <c r="H636" s="6"/>
       <c r="I636" s="6"/>
       <c r="J636" s="6"/>
       <c r="K636" s="6"/>
-    </row>
-    <row r="637" spans="1:11" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A637" s="6"/>
-      <c r="B637" s="6"/>
-      <c r="C637" s="6"/>
-      <c r="D637" s="6"/>
-      <c r="E637" s="6"/>
-      <c r="F637" s="6"/>
-      <c r="G637" s="6"/>
-      <c r="H637" s="6"/>
-      <c r="I637" s="6"/>
-      <c r="J637" s="6"/>
-      <c r="K637" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9582,25 +9140,25 @@
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="33" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -9623,12 +9181,12 @@
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="D5" s="12">
         <v>3000</v>
@@ -9641,7 +9199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B6" s="13"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
@@ -9653,7 +9211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B7" s="13"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
@@ -9665,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -9677,7 +9235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -9689,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -9701,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -9713,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -9725,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -9737,7 +9295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -9749,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -9761,7 +9319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -9773,7 +9331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -9785,7 +9343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -9797,7 +9355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -9809,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -9821,7 +9379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -9833,7 +9391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -9845,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -9857,7 +9415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -9869,7 +9427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -9881,7 +9439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -9893,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -9905,7 +9463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
